--- a/RestSharp/Main_Resources/VTiger.xlsx
+++ b/RestSharp/Main_Resources/VTiger.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioRepos\AzureDevOps\RestSharp\RestSharp\Main_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46C349-ABBB-49BA-930C-F22AC8B46B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3D8B4-6FA5-4517-A77D-94B01578C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="11952" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10476" yWindow="1764" windowWidth="11952" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITLE" sheetId="1" r:id="rId1"/>
+    <sheet name="LOGIN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -43,6 +44,33 @@
   </si>
   <si>
     <t>Administrator - Home - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>HOMEPAGE_TITLE</t>
+  </si>
+  <si>
+    <t>LOGINPAGE_TITLE</t>
+  </si>
+  <si>
+    <t>LOGINPAGE_URL</t>
+  </si>
+  <si>
+    <t>http://localhost:8888</t>
+  </si>
+  <si>
+    <t>HOMEPAGE_URL</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/index.php?action=index&amp;module=Home</t>
   </si>
 </sst>
 </file>
@@ -362,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,4 +423,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F142181-8F59-480C-859F-2AF8741F9E1B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RestSharp/Main_Resources/VTiger.xlsx
+++ b/RestSharp/Main_Resources/VTiger.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioRepos\AzureDevOps\RestSharp\RestSharp\Main_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3D8B4-6FA5-4517-A77D-94B01578C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8B9EA-19F9-432E-92F1-89B6A7948475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10476" yWindow="1764" windowWidth="11952" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITLE" sheetId="1" r:id="rId1"/>
     <sheet name="LOGIN" sheetId="2" r:id="rId2"/>
+    <sheet name="LOGIN2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -429,7 +430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F142181-8F59-480C-859F-2AF8741F9E1B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -520,4 +523,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CFF5C1-DDA5-4E1F-B37F-099377853F24}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>